--- a/tests/IT23156210 - IT3040_TestCases.xlsx
+++ b/tests/IT23156210 - IT3040_TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="226">
   <si>
     <t>TC ID</t>
   </si>
@@ -40,13 +40,13 @@
     <t>Accuracy justification / Description</t>
   </si>
   <si>
-    <t>What is covered by the test</t>
+    <t>Informal</t>
   </si>
   <si>
     <t>Pos_Fun_0001</t>
   </si>
   <si>
-    <t>Convert a short daily greeting phrase</t>
+    <t>Greeting phrase</t>
   </si>
   <si>
     <t>S</t>
@@ -70,16 +70,16 @@
     <t>Pos_Fun_0002</t>
   </si>
   <si>
-    <t>Long mixed-language input</t>
+    <t>Mixed-language input</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>machan mata adha meeting ekee Zoom link eka email ekak vidhihata evanna puLuvandha? Please send it before 3pm.</t>
-  </si>
-  <si>
-    <t>මචන් මට අද meeting එකේ Zoom link එක email එකක් විදිහට එවන්න පුළුවන්ද? Please send it before 3pm.</t>
+    <t>machan mata adha meeting ekak thiyenavaa</t>
+  </si>
+  <si>
+    <t>මචන් මට අද meeting එකක් තියෙනවා</t>
   </si>
   <si>
     <t>Mixed Singlish + English handled correctly.</t>
@@ -127,19 +127,13 @@
     <t>Convert a complex sentence</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>mama sunaQQgu vunee maarga thadhabadhaya nisaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">මම සුනංගු වුනේ මාර්ග තදබදය නිසා  </t>
-  </si>
-  <si>
-    <t>මම සුනංගු වුනේ මාර්ග තදබදය නිසා</t>
-  </si>
-  <si>
-    <t>Complex sentence handled correctly.</t>
+    <t>mama bath kanna yanavaa, passee ennam</t>
+  </si>
+  <si>
+    <t>මම බත් කන්න යනවා, පස්සේ එන්නම්</t>
+  </si>
+  <si>
+    <t>UnderstandablUnderstandablUnderstandable</t>
   </si>
   <si>
     <t>Word combination / phrase pattern; Complex sentence; L (≥300 characters); Accuracy validation</t>
@@ -151,6 +145,12 @@
     <t>Convert interrogative sentence</t>
   </si>
   <si>
+    <t>oyaa monavadha karannee?</t>
+  </si>
+  <si>
+    <t>ඔයා මොනවද කරන්නේ?</t>
+  </si>
+  <si>
     <t>Question is correctly converted.</t>
   </si>
   <si>
@@ -181,10 +181,10 @@
     <t>Convert positive sentence</t>
   </si>
   <si>
-    <t>mama ehema karanavaa.</t>
-  </si>
-  <si>
-    <t>මම එහෙම කරනවා.</t>
+    <t>karuNaakaralaa mata udhavvak karanna</t>
+  </si>
+  <si>
+    <t>කරුණාකරලා මට උදව්වක් කරන්න</t>
   </si>
   <si>
     <t>Positive sentence preserved.</t>
@@ -217,31 +217,25 @@
     <t>Convert polite phrasing</t>
   </si>
   <si>
-    <t>karuNaakaralaa mata podi udhavvak karanna puLuvandha?</t>
-  </si>
-  <si>
-    <t>කරුණාකරලා මට පොඩි උදව්වක් කරන්න පුළුවන්ද?</t>
-  </si>
-  <si>
-    <t>Polite phrasing handled.</t>
-  </si>
-  <si>
-    <t>Greeting / request / response; Present tense; S (≤30 characters); Accuracy validation</t>
+    <t>mama dhaen vaeda karanavaa</t>
+  </si>
+  <si>
+    <t>මම දැන් වැඩ කරනවා</t>
+  </si>
+  <si>
+    <t>daily language usage</t>
   </si>
   <si>
     <t>Pos_Fun_0011</t>
   </si>
   <si>
-    <t>Frequent expression conversion</t>
-  </si>
-  <si>
-    <t>mata baya hithenavaa</t>
-  </si>
-  <si>
-    <t>මට බය හිතෙනවා</t>
-  </si>
-  <si>
-    <t>Frequent day-to-day expression converted correctly.</t>
+    <t>Polite phrase</t>
+  </si>
+  <si>
+    <t>bohooma sthuthiyi</t>
+  </si>
+  <si>
+    <t>බොහෝම ස්තුතියි</t>
   </si>
   <si>
     <t>Daily language usage; Simple sentence; S (≤30 characters); Accuracy validation</t>
@@ -250,31 +244,22 @@
     <t>Pos_Fun_0012</t>
   </si>
   <si>
-    <t>Repeated word emphasis</t>
-  </si>
-  <si>
-    <t>hari hari</t>
-  </si>
-  <si>
-    <t>හරි හරි</t>
-  </si>
-  <si>
-    <t>Repeated words converted correctly.</t>
-  </si>
-  <si>
-    <t>Word combination / phrase pattern; Simple sentence; S (≤30 characters); Accuracy validation</t>
+    <t>samaavenna</t>
+  </si>
+  <si>
+    <t>සමාවෙන්න</t>
   </si>
   <si>
     <t>Pos_Fun_0013</t>
   </si>
   <si>
-    <t>Tense variation past</t>
-  </si>
-  <si>
-    <t>mama iiyee gedhara giyaa.</t>
-  </si>
-  <si>
-    <t>මම ඉයේ ගෙදර ගියා.</t>
+    <t>Negative sentence</t>
+  </si>
+  <si>
+    <t>meeka hari lassanayi</t>
+  </si>
+  <si>
+    <t>මේක හරි ලස්සනයි</t>
   </si>
   <si>
     <t>Past tense correctly converted.</t>
@@ -289,10 +274,10 @@
     <t>Tense variation present</t>
   </si>
   <si>
-    <t>mama dhaen vaeda karanavaa</t>
-  </si>
-  <si>
-    <t>මම දැන් වැඩ කරනවා</t>
+    <t>mata podi dheyak oonee</t>
+  </si>
+  <si>
+    <t>මට පොඩි දෙයක් ඕනේ</t>
   </si>
   <si>
     <t>Present tense correctly converted.</t>
@@ -307,405 +292,423 @@
     <t>Tense variation future</t>
   </si>
   <si>
-    <t>mama heta enavaa</t>
-  </si>
-  <si>
-    <t>මම හෙට එනවා</t>
+    <t>mama heta ennam</t>
+  </si>
+  <si>
+    <t>මම හෙට එන්නම්</t>
   </si>
   <si>
     <t>Future tense correctly converted.</t>
   </si>
   <si>
-    <t>Tense variation; Future tense; S (≤30 characters); Accuracy validation</t>
+    <t>Checks transliteration for future tense sentences</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0016</t>
+  </si>
+  <si>
+    <t>Tense variation; past tense</t>
+  </si>
+  <si>
+    <t>mama ehema kiyalaa thibbaa</t>
+  </si>
+  <si>
+    <t>මම එහෙම කියලා තිබ්බා</t>
+  </si>
+  <si>
+    <t>Past tense converted</t>
+  </si>
+  <si>
+    <t>Checks transliteration for past tense sentences</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0017</t>
+  </si>
+  <si>
+    <t>Polite vs informal phrasing</t>
+  </si>
+  <si>
+    <t>oyaa hari hoDHAyi</t>
+  </si>
+  <si>
+    <t>ඔයා හරි හොඳයි</t>
+  </si>
+  <si>
+    <t>Daily language usage</t>
+  </si>
+  <si>
+    <t>Formatting (spaces / line breaks); Simple sentence; S (≤30 characters); Robustness validation</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0018</t>
+  </si>
+  <si>
+    <t>oyaa hoDHA vidhihata vaeda karanna</t>
+  </si>
+  <si>
+    <t>ඔයා හොඳ විදිහට වැඩ කරන්න</t>
+  </si>
+  <si>
+    <t>Correctly preserves command</t>
+  </si>
+  <si>
+    <t>Punctuation / numbers; Simple sentence; S (≤30 characters); Robustness validation</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0019</t>
+  </si>
+  <si>
+    <t>api Galle trip ekak yamu</t>
+  </si>
+  <si>
+    <t>අපි Galle trip එකක් යමු</t>
+  </si>
+  <si>
+    <t>Correct Sinhala transliteration for greeting phrase.</t>
+  </si>
+  <si>
+    <t>Checks if Sinhala transliteration works for greeting phrases</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0020</t>
+  </si>
+  <si>
+    <t>mokakdha karannee?</t>
+  </si>
+  <si>
+    <t>මොකක්ද කරන්නේ?</t>
+  </si>
+  <si>
+    <t>Long input may break formatting.</t>
+  </si>
+  <si>
+    <t>Formatting (spaces / line breaks / paragraph); L (≥300 characters); Robustness validation</t>
   </si>
   <si>
     <t>Neg_Fun_0001</t>
   </si>
   <si>
-    <t>Slang handling</t>
-  </si>
-  <si>
-    <t>Thanks machan</t>
-  </si>
-  <si>
-    <t>තැන්ක්ස් machan</t>
+    <t>Negative short sentence</t>
+  </si>
+  <si>
+    <t>mama ehema karannee naehae</t>
+  </si>
+  <si>
+    <t>මම එහෙම කරන්නේ naha</t>
+  </si>
+  <si>
+    <t>මම එහෙම කරන්නේ නැහැ</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>System does not handle chat-style shorthand as expected.</t>
-  </si>
-  <si>
-    <t>Slang / informal language; Simple sentence; S (≤30 characters); Robustness validation</t>
+    <t>System fails to convert naehae correctly for negative form.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Negation (negative form) / S / Robustness validation</t>
   </si>
   <si>
     <t>Neg_Fun_0002</t>
   </si>
   <si>
-    <t>Incorrect spacing</t>
-  </si>
-  <si>
-    <t>mamagedharayanavaa</t>
-  </si>
-  <si>
-    <t>mama gedhara yanavaa</t>
-  </si>
-  <si>
-    <t>System fails to correct joined words.</t>
-  </si>
-  <si>
-    <t>Formatting (spaces / line breaks); Simple sentence; S (≤30 characters); Robustness validation</t>
+    <t>Negative pronoun variation</t>
+  </si>
+  <si>
+    <t>මම එහෙම කරන්නේ naehae.</t>
+  </si>
+  <si>
+    <t>Mixed Sinhala + unconverted Singlish for negative form.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Negation / S / Robustness validation</t>
   </si>
   <si>
     <t>Neg_Fun_0003</t>
   </si>
   <si>
-    <t>Invalid characters</t>
-  </si>
-  <si>
-    <t>mama ??? karanavaa</t>
-  </si>
-  <si>
-    <t>මම ??? කරනවා</t>
-  </si>
-  <si>
-    <t>System does not handle unexpected characters correctly.</t>
-  </si>
-  <si>
-    <t>Punctuation / numbers; Simple sentence; S (≤30 characters); Robustness validation</t>
+    <t>Negative medium-length compound sentence</t>
+  </si>
+  <si>
+    <t>api heta ennee naehae, mata bath oonee naehae.</t>
+  </si>
+  <si>
+    <t>අපි හෙට ennee naehae, මට බත් oonee naehae.</t>
+  </si>
+  <si>
+    <t>අපි හෙට එන්නේ නැහැ, මට බත් ඕනේ නැහැ.</t>
+  </si>
+  <si>
+    <t>System converts part of sentence, misses naehae.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Compound sentence / M / Robustness validation</t>
   </si>
   <si>
     <t>Neg_Fun_0004</t>
   </si>
   <si>
-    <t>English only</t>
-  </si>
-  <si>
-    <t>"Hello orld"</t>
-  </si>
-  <si>
-    <t>Hello ර්ල්ඩ්</t>
-  </si>
-  <si>
-    <t>Empty input is not handled as expected.</t>
-  </si>
-  <si>
-    <t>Empty/cleared input handling; Simple sentence; S (≤30 characters); Error handling / input validation</t>
+    <t>Negative command</t>
+  </si>
+  <si>
+    <t>mata eeka karanna baee.</t>
+  </si>
+  <si>
+    <t>මට ඒක කරන්න baee.</t>
+  </si>
+  <si>
+    <t>මට ඒක කරන්න බැහැ.</t>
+  </si>
+  <si>
+    <t>Negative command form not fully converted.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Imperative / S / Robustness validation</t>
   </si>
   <si>
     <t>Neg_Fun_0005</t>
   </si>
   <si>
-    <t>"Wrong spelling"</t>
-  </si>
-  <si>
-    <t>mamgedraynava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම </t>
-  </si>
-  <si>
-    <t>Long input may break formatting.</t>
-  </si>
-  <si>
-    <t>Formatting (spaces / line breaks / paragraph); L (≥300 characters); Robustness validation</t>
+    <t>Negative future tense</t>
+  </si>
+  <si>
+    <t>api iiLaGa sathiyee gedhara yamu naehae.</t>
+  </si>
+  <si>
+    <t>අපි iiLaGa sathiyee gedhara yamu naehae</t>
+  </si>
+  <si>
+    <t>අපි ඉලගා සතියේ ගෙදර යමු නැහැ.</t>
+  </si>
+  <si>
+    <t>System fails to transliterate naehae and iiLaGa.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Future tense / S / Robustness validation</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0006</t>
+  </si>
+  <si>
+    <t>Negative interrogative</t>
+  </si>
+  <si>
+    <t>oyaa enavadha naehae?</t>
+  </si>
+  <si>
+    <t>ඔයා enavadha naehae?</t>
+  </si>
+  <si>
+    <t>ඔයා එනවාද නැහැ?</t>
+  </si>
+  <si>
+    <t>Interrogative negation not fully converted.</t>
+  </si>
+  <si>
+    <t>Daily language usage / Interrogative / S / Robustness validation</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0007</t>
+  </si>
+  <si>
+    <t>Negative joined words</t>
+  </si>
+  <si>
+    <t>mata eeka epaa.</t>
+  </si>
+  <si>
+    <t>මට eeka epaa.</t>
+  </si>
+  <si>
+    <t>මට ඒක එපා.</t>
+  </si>
+  <si>
+    <t>Joined word plus negation not converted.</t>
+  </si>
+  <si>
+    <t>Word combination / Negation / S / Robustness validation</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0008</t>
+  </si>
+  <si>
+    <t>Negative multi-word</t>
+  </si>
+  <si>
+    <t>hari hari karannee naehae.</t>
+  </si>
+  <si>
+    <t>හරි හරි කරන්නේ නැහැ.</t>
+  </si>
+  <si>
+    <t>Repeated emphasis + negation not converted.</t>
+  </si>
+  <si>
+    <t>Repeated words / Negation / S / Robustness validation</t>
   </si>
   <si>
     <t>Pos_UI_0001</t>
   </si>
   <si>
-    <t>Real-time output update</t>
+    <t>Real-time conversion updates output</t>
+  </si>
+  <si>
+    <t>man kade yanavaa</t>
+  </si>
+  <si>
+    <t>man කඩෙ යනවා</t>
+  </si>
+  <si>
+    <t>Sinhala output updates in real-time correctly</t>
+  </si>
+  <si>
+    <t>Usability flow (real-time conversion), Simple sentence, S (≤30 characters), Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>Pos_UI_0002</t>
+  </si>
+  <si>
+    <t>Clear input resets output</t>
+  </si>
+  <si>
+    <t>mama bath kanna</t>
+  </si>
+  <si>
+    <t>මම බත් කනවා</t>
+  </si>
+  <si>
+    <t>Input clearing works correctly</t>
+  </si>
+  <si>
+    <t>Daily language usage, Simple sentence, S (≤30 characters), Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>Pos_UI_0003</t>
+  </si>
+  <si>
+    <t>Sinhala font renders correctly</t>
+  </si>
+  <si>
+    <t>Sinhala fonts render properly</t>
+  </si>
+  <si>
+    <t>Greeting / request / response, Interrogative, S (≤30 characters), Accuracy validation</t>
+  </si>
+  <si>
+    <t>Pos_UI_0004</t>
+  </si>
+  <si>
+    <t>Text selection does not affect output</t>
+  </si>
+  <si>
+    <t>mata udhavvak karanna</t>
+  </si>
+  <si>
+    <t>මට උදව්වක් කරන්න</t>
+  </si>
+  <si>
+    <t>Selected text is displayed correctly</t>
+  </si>
+  <si>
+    <t>Daily language usage, Simple sentence, S (≤30 characters), Accuracy validation</t>
+  </si>
+  <si>
+    <t>Pos_UI_0005</t>
+  </si>
+  <si>
+    <t>Responsive UI display</t>
+  </si>
+  <si>
+    <t>mama ehema karanavaa</t>
+  </si>
+  <si>
+    <t>මම එහෙම කරනවා</t>
+  </si>
+  <si>
+    <t>මම එහෙම කරනවා"</t>
+  </si>
+  <si>
+    <t>UI adjusts correctly for display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neg_UI_0001
+</t>
+  </si>
+  <si>
+    <t>Long UI lag</t>
+  </si>
+  <si>
+    <t>mam mam mam mam mam mam</t>
+  </si>
+  <si>
+    <t>mama mama mama mama</t>
+  </si>
+  <si>
+    <t>මම මම මම මම මම මම</t>
+  </si>
+  <si>
+    <t>UI response time is slow when processing repeated text, causing delay in real-time conversion</t>
+  </si>
+  <si>
+    <t>• Daily language usage
+• Simple sentence
+• S (≤30 characters)
+• Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>Neg_UI_0002</t>
+  </si>
+  <si>
+    <t>Overflow handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mama mama mama mama mama mama mama mama mama mama
+mama mama mama mama mama mama mama mama mama mama
+mama mama mama mama mama mama mama mama mama mama
+mama mama mama mama mama mama mama mama mama mama
+</t>
+  </si>
+  <si>
+    <t>mama mama mama mama mama mama mama mama mama mama</t>
+  </si>
+  <si>
+    <t>මම මම මම මම මම මම මම මම මම මම
+මම මම මම මම මම මම මම මම මම මම
+මම මම මම මම මම මම මම මම මම මම
+මම මම මම මම මම මම මම මම මම මම</t>
+  </si>
+  <si>
+    <t>The UI does not handle very long repeated input properly, causing layout overflow</t>
+  </si>
+  <si>
+    <t>• Formatting (spaces / line breaks / paragraph)
+• Simple sentence
+• L (≥300 characters)
+• Formatting preservation</t>
+  </si>
+  <si>
+    <t>Neg_UI_0003</t>
+  </si>
+  <si>
+    <t>Page reload behavior</t>
   </si>
   <si>
     <t>man gedhara yanavaa</t>
   </si>
   <si>
+    <t>මම ගෙදර යනවා</t>
+  </si>
+  <si>
     <t>man ගෙදර යනවා</t>
   </si>
   <si>
-    <t>Real-time output appears correctly.</t>
-  </si>
-  <si>
-    <t>Usability flow (real-time conversion); Simple sentence; S (≤30 characters); Real-time output update behavior</t>
-  </si>
-  <si>
-    <t>Pos_UI_0002</t>
-  </si>
-  <si>
-    <t>Clear input field</t>
-  </si>
-  <si>
-    <t>mata bath oonee</t>
-  </si>
-  <si>
-    <t>After clearing, input is empty</t>
-  </si>
-  <si>
-    <t>Input field clears correctly.</t>
-  </si>
-  <si>
-    <t>Usability flow; Simple sentence; S (≤30 characters); Real-time output update behavior</t>
-  </si>
-  <si>
-    <t>Neg_UI_0001</t>
-  </si>
-  <si>
-    <t>UI lag with long input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama </t>
-  </si>
-  <si>
-    <t>Sinhala output updates without lag</t>
-  </si>
-  <si>
-    <t>Lag observed</t>
-  </si>
-  <si>
-    <t>Long input causes UI lag.</t>
-  </si>
-  <si>
-    <t>Usability flow; L (≥300 characters); Real-time output update behavior</t>
-  </si>
-  <si>
-    <t>Pos_UI_0003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sinhala text renders correctly.</t>
-  </si>
-  <si>
-    <t>UI rendering; Simple sentence; S (≤30 characters); Font display</t>
-  </si>
-  <si>
-    <t>Pos_UI_0004</t>
-  </si>
-  <si>
-    <t>Text selection works</t>
-  </si>
-  <si>
-    <t>oba mata sahaaya dhenna puLuvandha?</t>
-  </si>
-  <si>
-    <t>ඔබ මට සහාය දෙන්න පුළුවන්ද?</t>
-  </si>
-  <si>
-    <t>Text can be copied or highlighted.</t>
-  </si>
-  <si>
-    <t>UI usability; Simple sentence; S (≤30 characters); Text selection behavior</t>
-  </si>
-  <si>
-    <t>Neg_UI_0002</t>
-  </si>
-  <si>
-    <t>Text overflow with small window</t>
-  </si>
-  <si>
-    <t>oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya oya</t>
-  </si>
-  <si>
-    <t>ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා ඔයා</t>
-  </si>
-  <si>
-    <t>Text container fails to wrap long input.</t>
-  </si>
-  <si>
-    <t>UI behavior; M (31–299 characters); Responsiveness / wrapping</t>
-  </si>
-  <si>
-    <t>Neg_UI_0003</t>
-  </si>
-  <si>
-    <t>Output not updated after page reload</t>
-  </si>
-  <si>
-    <t>man pasal yanavaa</t>
-  </si>
-  <si>
-    <t>man පසල් යනවා</t>
-  </si>
-  <si>
-    <t>Output field does not retain or update correctly after reload.</t>
-  </si>
-  <si>
-    <t>UI behavior; Simple sentence; S (≤30 characters); Page reload handling</t>
-  </si>
-  <si>
-    <t>Pos_Fun_0016</t>
-  </si>
-  <si>
-    <t>Convert exclamatory sentence</t>
-  </si>
-  <si>
-    <t>wow api jivithaya hodhayi!</t>
-  </si>
-  <si>
-    <t>Wow අපි ජීවිතය හොඳයි!</t>
-  </si>
-  <si>
-    <t>Exclamatory sentence preserved.</t>
-  </si>
-  <si>
-    <t>Exclamation; Simple sentence; S (≤30 characters); Accuracy validation</t>
-  </si>
-  <si>
-    <t>Pos_Fun_0017</t>
-  </si>
-  <si>
-    <t>Convert conditional sentence</t>
-  </si>
-  <si>
-    <t>oba yannee nam mama ehema karanavaa</t>
-  </si>
-  <si>
-    <t>ඔබ යන්නේ නම් මම එහෙම කරනවා</t>
-  </si>
-  <si>
-    <t>Conditional meaning preserved.</t>
-  </si>
-  <si>
-    <t>Conditional sentence; M (31–299 characters); Accuracy validation</t>
-  </si>
-  <si>
-    <t>Pos_Fun_0018</t>
-  </si>
-  <si>
-    <t>Convert question with mixed languages</t>
-  </si>
-  <si>
-    <t>mata help ekak karanna puluvandha? Can you help me?</t>
-  </si>
-  <si>
-    <t>මට help එකක් කරන්න පුළුවන්ද? Can you help me?</t>
-  </si>
-  <si>
-    <t>Mixed Singlish + English question handled correctly.</t>
-  </si>
-  <si>
-    <t>Mixed language; Compound sentence; M (31–299 characters); Accuracy validation</t>
-  </si>
-  <si>
-    <t>Neg_Fun_0006</t>
-  </si>
-  <si>
-    <t>Unsupported emoji input</t>
-  </si>
-  <si>
-    <t>mama 😎 karanavaa</t>
-  </si>
-  <si>
-    <t>මම 😎 කරනවා</t>
-  </si>
-  <si>
-    <t>මම karanavaa 😎</t>
-  </si>
-  <si>
-    <t>System fails to handle emoji placement correctly.</t>
-  </si>
-  <si>
-    <t>Emoji handling; S (≤30 characters); Robustness validation</t>
-  </si>
-  <si>
-    <t>Neg_Fun_0007</t>
-  </si>
-  <si>
-    <t>Invalid punctuation sequence</t>
-  </si>
-  <si>
-    <t>mama!!! karanavaa??</t>
-  </si>
-  <si>
-    <t>මම කරනවා!!!</t>
-  </si>
-  <si>
-    <t>මම!!! කරනවා??</t>
-  </si>
-  <si>
-    <t>System does not normalize multiple punctuation correctly.</t>
-  </si>
-  <si>
-    <t>Punctuation handling; S (≤30 characters); Robustness validation</t>
-  </si>
-  <si>
-    <t>Pos_UI_0005</t>
-  </si>
-  <si>
-    <t>Tooltip shows full text</t>
-  </si>
-  <si>
-    <t>mama gedhara yanavaa, oba dhakinna puluvandha?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">මම ගෙදර යනවා, ඔබ දකින්න පුලුවන්ද?
-මම ගෙදර යනවා, ඔබ දකින්න පුලුවන්ද?
-</t>
-  </si>
-  <si>
-    <t>මම ගෙදර යනවා, ඔබ දකින්න පුලුවන්ද?</t>
-  </si>
-  <si>
-    <t>Tooltip displays entire converted text correctly.</t>
-  </si>
-  <si>
-    <t>UI usability; M (31–299 characters); Tooltip behavior</t>
-  </si>
-  <si>
-    <t>Pos_UI_0006</t>
-  </si>
-  <si>
-    <t>Responsive UI on mobile</t>
-  </si>
-  <si>
-    <t>mama gedhara yanna hadhanavaa, obata maava hambavenna puLuvandha?</t>
-  </si>
-  <si>
-    <t>මම ගෙදර යන්න හදනවා, ඔබට මාව හම්බවෙන්න පුළුවන්ද?</t>
-  </si>
-  <si>
-    <t>Output fits well on smaller devices.</t>
-  </si>
-  <si>
-    <t>UI responsiveness; M (31–299 characters); Mobile display</t>
-  </si>
-  <si>
-    <t>Neg_UI_0004</t>
-  </si>
-  <si>
-    <t>UI breaks with unsupported font</t>
-  </si>
-  <si>
-    <t>ayiyoo</t>
-  </si>
-  <si>
-    <t>අයියෝ</t>
-  </si>
-  <si>
-    <t>Unsupported font causes display issues.</t>
-  </si>
-  <si>
-    <t>UI rendering; Simple sentence; S (≤30 characters); Font compatibility</t>
-  </si>
-  <si>
-    <t>Neg_UI_0005</t>
-  </si>
-  <si>
-    <t>Button not clickable after input</t>
-  </si>
-  <si>
-    <t>mata help ekak karanna puluvandha?</t>
-  </si>
-  <si>
-    <t>මට help එකක් කරන්න පුලුවන්ද?</t>
-  </si>
-  <si>
-    <t>UI element becomes unresponsive after input.</t>
-  </si>
-  <si>
-    <t>UI functionality; Simple sentence; S (≤30 characters); Button click handling</t>
+    <t>UI does not preserve user input or output state after refreshing the page</t>
+  </si>
+  <si>
+    <t>• Empty/cleared input handling
+• Simple sentence
+• S (≤30 characters)
+• Error handling / input validation</t>
   </si>
 </sst>
 </file>
@@ -742,12 +745,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1061,15 +1061,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="46.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="48.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="48.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="15.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1225,45 +1225,45 @@
         <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -1370,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
@@ -1385,762 +1385,758 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/tests/IT23156210 - IT3040_TestCases.xlsx
+++ b/tests/IT23156210 - IT3040_TestCases.xlsx
@@ -544,7 +544,7 @@
         <v>Compound sentence meaning preserved.</v>
       </c>
       <c r="I5" t="str">
-        <v>Word combination / phrase pattern; Compound sentence; M (31–299 characters); Accuracy validation</v>
+        <v>Compound sentence; S (≤30 characters); Accuracy validation</v>
       </c>
     </row>
     <row r="6">
@@ -1402,10 +1402,10 @@
         <v xml:space="preserve">mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama </v>
       </c>
       <c r="E35" t="str">
-        <v>Sinhala output updates without lag</v>
+        <v xml:space="preserve">mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama mama </v>
       </c>
       <c r="F35" t="str">
-        <v>Lag observed</v>
+        <v xml:space="preserve">මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම මම </v>
       </c>
       <c r="G35" t="str">
         <v>Fail</v>
@@ -1454,16 +1454,16 @@
         <v>Incorrect Sinhala output</v>
       </c>
       <c r="C37" t="str">
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="D37" t="str">
-        <v xml:space="preserve">mama pansal yanavaa </v>
+        <v xml:space="preserve"> mama pansal yannee naee </v>
       </c>
       <c r="E37" t="str">
-        <v>mama pansal yanavaa</v>
+        <v>mama pansal yannee naee</v>
       </c>
       <c r="F37" t="str">
-        <v>මම පන්සල් යනවා</v>
+        <v>මම පන්සල් යන්නේ නෑ</v>
       </c>
       <c r="G37" t="str">
         <v>Fail</v>
@@ -1472,7 +1472,7 @@
         <v>Incorrect Sinhala output generated.</v>
       </c>
       <c r="I37" t="str">
-        <v>Daily language usage; Sentence structure; S (≤30 characters); Real-time output update behavior</v>
+        <v>Daily language usage; Sentence structure; M (≥30 characters); Real-time output update behavior</v>
       </c>
     </row>
     <row r="38">
@@ -1483,16 +1483,16 @@
         <v>No Sinhala output update</v>
       </c>
       <c r="C38" t="str">
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="D38" t="str">
-        <v xml:space="preserve"> mama gedhara yanavaa, oyata kohomadha? </v>
+        <v xml:space="preserve">mama gedhara yannee naee , oyaata kohomadha? </v>
       </c>
       <c r="E38" t="str">
-        <v xml:space="preserve"> mama gedhara yanavaa, oyata kohomadha?</v>
+        <v>mama gedhara yannee naee , oyaata kohomadha?</v>
       </c>
       <c r="F38" t="str">
-        <v>මම ගෙදර යනවා, ඔයාට කොහොමද?</v>
+        <v>මම ගෙදර යන්නේ නෑ , ඔයාට කොහොමද?</v>
       </c>
       <c r="G38" t="str">
         <v>Fail</v>
@@ -1501,7 +1501,7 @@
         <v>No update in Sinhala output despite input change.</v>
       </c>
       <c r="I38" t="str">
-        <v>Usability flow; S (≤30 characters); Real-time output update behavior</v>
+        <v>Usability flow; M (≥30 characters); Real-time output update behavior</v>
       </c>
     </row>
   </sheetData>
